--- a/20221103_GanttChart.xlsx
+++ b/20221103_GanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66B7151-FC66-42A8-A4AD-E65DBA7E640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0285E40D-A848-4ADC-B74A-9CFD3A3223D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -906,6 +906,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -917,12 +923,6 @@
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1497,8 +1497,8 @@
   <dimension ref="A1:BL46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1541,106 +1541,106 @@
         <v>25</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="74">
+      <c r="D3" s="72"/>
+      <c r="E3" s="76">
         <v>44860</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="73">
         <f>I5</f>
         <v>44858</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="71">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="73">
         <f>P5</f>
         <v>44865</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="71">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="73">
         <f>W5</f>
         <v>44872</v>
       </c>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="71">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="73">
         <f>AD5</f>
         <v>44879</v>
       </c>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="71">
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="73">
         <f>AK5</f>
         <v>44886</v>
       </c>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="71">
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="73">
         <f>AR5</f>
         <v>44893</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="71">
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="73">
         <f>AY5</f>
         <v>44900</v>
       </c>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="71">
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="73">
         <f>BF5</f>
         <v>44907</v>
       </c>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="73"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="75"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
@@ -2276,7 +2276,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" s="46">
         <f>Project_Start</f>
@@ -2359,7 +2359,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="19">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E10" s="46">
         <f>E9</f>
@@ -2440,7 +2440,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="19">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E11" s="46">
         <f>E9</f>
@@ -2521,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="46">
         <v>44870</v>
@@ -4605,17 +4605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D29:D46 D7:D23">
